--- a/70004.xlsx
+++ b/70004.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbarry/work/JAM/fitpack/database/ln/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A1EB91-B3F7-194C-AA23-FAD4D97E524E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AEEDDB-AE0B-7844-936A-53F62603760F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8620" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="theory_table_lowx_0" sheetId="1" r:id="rId1"/>
@@ -472,8 +472,8 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -571,7 +571,7 @@
         <v>5041368676.0425262</v>
       </c>
       <c r="N2" s="6">
-        <v>68713.083708047823</v>
+        <v>3550129.8131344882</v>
       </c>
       <c r="O2">
         <f>0.012*M2</f>
@@ -625,7 +625,7 @@
         <v>3577874582.250392</v>
       </c>
       <c r="N3" s="6">
-        <v>71239.030084970727</v>
+        <v>2990766.8674816471</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O43" si="2">0.012*M3</f>
@@ -679,7 +679,7 @@
         <v>3842478168.2877359</v>
       </c>
       <c r="N4" s="6">
-        <v>89658.559300448745</v>
+        <v>3099386.2974336292</v>
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
@@ -733,7 +733,7 @@
         <v>2450642571.0391612</v>
       </c>
       <c r="N5" s="6">
-        <v>72576.629569550743</v>
+        <v>2475198.2602607622</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
@@ -787,7 +787,7 @@
         <v>434944025.2878226</v>
       </c>
       <c r="N6" s="6">
-        <v>15122.076418572949</v>
+        <v>1042765.584021431</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
@@ -841,7 +841,7 @@
         <v>1339722505.1237509</v>
       </c>
       <c r="N7" s="6">
-        <v>34570.417155493829</v>
+        <v>1830110.997401353</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
@@ -895,7 +895,7 @@
         <v>1844666772.361181</v>
       </c>
       <c r="N8" s="6">
-        <v>41889.575378997957</v>
+        <v>2147479.2038348019</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
@@ -949,7 +949,7 @@
         <v>1814006211.346879</v>
       </c>
       <c r="N9" s="6">
-        <v>45037.862379196471</v>
+        <v>2129557.5898216972</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
@@ -1003,7 +1003,7 @@
         <v>198804459.1879203</v>
       </c>
       <c r="N10" s="6">
-        <v>17355.658372918471</v>
+        <v>704990.17579665664</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
@@ -1057,7 +1057,7 @@
         <v>1984842420.5068419</v>
       </c>
       <c r="N11" s="6">
-        <v>17742.59041850935</v>
+        <v>2227578.5174191059</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
@@ -1111,7 +1111,7 @@
         <v>1456168492.562561</v>
       </c>
       <c r="N12" s="6">
-        <v>17934.966412733549</v>
+        <v>1907988.792264357</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
@@ -1165,7 +1165,7 @@
         <v>362339941.70100367</v>
       </c>
       <c r="N13" s="6">
-        <v>20175.683176220071</v>
+        <v>951761.44818568323</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
@@ -1219,7 +1219,7 @@
         <v>843661054.98440576</v>
       </c>
       <c r="N14" s="6">
-        <v>36615.086501825412</v>
+        <v>1452292.2011293089</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
@@ -1273,7 +1273,7 @@
         <v>1111223892.4469149</v>
       </c>
       <c r="N15" s="6">
-        <v>12875.881597038049</v>
+        <v>1666751.2505221909</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
@@ -1327,7 +1327,7 @@
         <v>1194141601.6655049</v>
       </c>
       <c r="N16" s="6">
-        <v>16965.383207376701</v>
+        <v>1727817.699922004</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
@@ -1381,7 +1381,7 @@
         <v>499514268.67338091</v>
       </c>
       <c r="N17" s="6">
-        <v>26945.095680129059</v>
+        <v>1117490.7926616</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
@@ -1435,7 +1435,7 @@
         <v>561783492.17344463</v>
       </c>
       <c r="N18" s="6">
-        <v>31311.73809789346</v>
+        <v>1185098.6163326709</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
@@ -1489,7 +1489,7 @@
         <v>278396967.40466052</v>
       </c>
       <c r="N19" s="6">
-        <v>23160.534143671099</v>
+        <v>834261.60076540208</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
@@ -1543,7 +1543,7 @@
         <v>571300558.1035099</v>
       </c>
       <c r="N20" s="6">
-        <v>19935.558060973399</v>
+        <v>1195094.72229559</v>
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
@@ -1597,7 +1597,7 @@
         <v>374653550.05981022</v>
       </c>
       <c r="N21" s="6">
-        <v>21874.2940060439</v>
+        <v>967798.46825128072</v>
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
@@ -1651,7 +1651,7 @@
         <v>22482332.563406959</v>
       </c>
       <c r="N22" s="6">
-        <v>6052.3624935231064</v>
+        <v>237077.69065965989</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
@@ -1705,7 +1705,7 @@
         <v>94189650.988525629</v>
       </c>
       <c r="N23" s="6">
-        <v>13086.40175480749</v>
+        <v>485256.7644776465</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
@@ -1759,7 +1759,7 @@
         <v>149767103.48275521</v>
       </c>
       <c r="N24" s="6">
-        <v>12604.60208764916</v>
+        <v>611896.85299639183</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
@@ -1813,7 +1813,7 @@
         <v>300109548.7307049</v>
       </c>
       <c r="N25" s="6">
-        <v>8483.0987435340376</v>
+        <v>866183.50932510954</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
@@ -1867,7 +1867,7 @@
         <v>157479734.26990491</v>
       </c>
       <c r="N26" s="6">
-        <v>12076.30218611031</v>
+        <v>627454.64830118383</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
@@ -1921,7 +1921,7 @@
         <v>48192435.630264767</v>
       </c>
       <c r="N27" s="6">
-        <v>7273.2790375853338</v>
+        <v>347103.85920594702</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
@@ -1975,7 +1975,7 @@
         <v>220977415.04668939</v>
       </c>
       <c r="N28" s="6">
-        <v>17340.428326518781</v>
+        <v>743265.45568640775</v>
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
@@ -2029,7 +2029,7 @@
         <v>279491616.66288102</v>
       </c>
       <c r="N29" s="6">
-        <v>21300.707897162971</v>
+        <v>835900.13856752182</v>
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
@@ -2083,7 +2083,7 @@
         <v>332219339.0371058</v>
       </c>
       <c r="N30" s="6">
-        <v>2981.6902677583462</v>
+        <v>288192.35721870977</v>
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
@@ -2137,7 +2137,7 @@
         <v>127452685.7321963</v>
       </c>
       <c r="N31" s="6">
-        <v>2549.7116742167432</v>
+        <v>178502.5810262952</v>
       </c>
       <c r="O31">
         <f t="shared" si="2"/>
@@ -2191,7 +2191,7 @@
         <v>213019045.28734189</v>
       </c>
       <c r="N32" s="6">
-        <v>15850.382422219989</v>
+        <v>729758.59927674348</v>
       </c>
       <c r="O32">
         <f t="shared" si="2"/>
@@ -2245,7 +2245,7 @@
         <v>30341817.727493148</v>
       </c>
       <c r="N33" s="6">
-        <v>1582.882676090361</v>
+        <v>87094.514361544541</v>
       </c>
       <c r="O33">
         <f t="shared" si="2"/>
@@ -2299,7 +2299,7 @@
         <v>38372390.68642392</v>
       </c>
       <c r="N34" s="6">
-        <v>2384.281573181102</v>
+        <v>97944.360080639555</v>
       </c>
       <c r="O34">
         <f t="shared" si="2"/>
@@ -2353,7 +2353,7 @@
         <v>33919096.59872181</v>
       </c>
       <c r="N35" s="6">
-        <v>2617.697986249852</v>
+        <v>92085.689168732686</v>
       </c>
       <c r="O35">
         <f t="shared" si="2"/>
@@ -2407,7 +2407,7 @@
         <v>17442506.625036649</v>
       </c>
       <c r="N36" s="6">
-        <v>1414.8020176895</v>
+        <v>66035.041124081719</v>
       </c>
       <c r="O36">
         <f t="shared" si="2"/>
@@ -2461,7 +2461,7 @@
         <v>9669316.0582424514</v>
       </c>
       <c r="N37" s="6">
-        <v>1388.9683410081441</v>
+        <v>49166.340259984907</v>
       </c>
       <c r="O37">
         <f t="shared" si="2"/>
@@ -2515,7 +2515,7 @@
         <v>5507518.7537001027</v>
       </c>
       <c r="N38" s="6">
-        <v>1053.430418454062</v>
+        <v>37106.329492756697</v>
       </c>
       <c r="O38">
         <f t="shared" si="2"/>
@@ -2569,7 +2569,7 @@
         <v>5416520.2772706021</v>
       </c>
       <c r="N39" s="6">
-        <v>1083.951183681874</v>
+        <v>36798.506346285991</v>
       </c>
       <c r="O39">
         <f t="shared" si="2"/>
@@ -2623,7 +2623,7 @@
         <v>6360600.5800148537</v>
       </c>
       <c r="N40" s="6">
-        <v>948.90714544168088</v>
+        <v>39876.686735531497</v>
       </c>
       <c r="O40">
         <f t="shared" si="2"/>
@@ -2677,7 +2677,7 @@
         <v>5114995.9541515056</v>
       </c>
       <c r="N41" s="6">
-        <v>904.07584894422246</v>
+        <v>35759.599949354517</v>
       </c>
       <c r="O41">
         <f t="shared" si="2"/>
@@ -2731,7 +2731,7 @@
         <v>4614514.8902550256</v>
       </c>
       <c r="N42" s="6">
-        <v>939.61647729857407</v>
+        <v>33965.110371729337</v>
       </c>
       <c r="O42">
         <f t="shared" si="2"/>
@@ -2785,7 +2785,7 @@
         <v>1685524.175226792</v>
       </c>
       <c r="N43" s="6">
-        <v>621.52456324009427</v>
+        <v>20527.567897992642</v>
       </c>
       <c r="O43">
         <f t="shared" si="2"/>
